--- a/data/trans_bre/P16A05-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Dificultad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A05-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.903676095753026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.380528806014767</v>
+        <v>3.380528806014765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6692846406188803</v>
@@ -649,7 +649,7 @@
         <v>1.74390792317486</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2968359968518845</v>
+        <v>0.2968359968518843</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8047194303812191</v>
+        <v>0.9148634930966472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.029683304496102</v>
+        <v>4.673664781827372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.715156368234135</v>
+        <v>5.853529601471259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7483807969395099</v>
+        <v>-0.5954544769011152</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09005910238962442</v>
+        <v>0.1034262761226988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.049267369254342</v>
+        <v>0.9748634621726499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9990315166567175</v>
+        <v>1.03317877845132</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06052730046316027</v>
+        <v>-0.03957221968826523</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.764060406843006</v>
+        <v>5.96373917539041</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.362632838458511</v>
+        <v>9.180319460156774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.39469539220412</v>
+        <v>10.48588704354954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.045912608584293</v>
+        <v>6.999351863475726</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.470841661952994</v>
+        <v>1.642033624889578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.448024954500651</v>
+        <v>3.211070599557866</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.884321752359333</v>
+        <v>2.953193343036718</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7446956050606971</v>
+        <v>0.7807332683526417</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.107167712606723</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.497084329712663</v>
+        <v>5.497084329712664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.605083964279731</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.515374906133971</v>
+        <v>1.519392040531208</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2427147627870576</v>
+        <v>0.05822653281740464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.005938210972140511</v>
+        <v>-0.005144613671744796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.373654056655113</v>
+        <v>3.610480609201183</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5321961966483993</v>
+        <v>0.5734973486550108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0288072667384568</v>
+        <v>0.009115541173051406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02225106422511907</v>
+        <v>-0.01409761977191598</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6385550510690686</v>
+        <v>0.6626008059016172</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.854377254070427</v>
+        <v>4.787910365103477</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.003048672285197</v>
+        <v>4.275751141210583</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.026698023425774</v>
+        <v>4.08778534930198</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.261183571602552</v>
+        <v>7.348910572272748</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.524603172243818</v>
+        <v>3.388777073199105</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.560440218408954</v>
+        <v>1.680079393948903</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.415766002321657</v>
+        <v>1.436788074499978</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.228953640983063</v>
+        <v>2.318673220886181</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3915960244590776</v>
+        <v>-0.2844316390726099</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.301017069966771</v>
+        <v>-0.2369615008453858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2764265275314544</v>
+        <v>0.2425967711749819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.396138960614497</v>
+        <v>2.342518120592513</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1787739255304952</v>
+        <v>-0.1122446199427398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.103286843696482</v>
+        <v>-0.07925540721021204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05442971475352039</v>
+        <v>0.04151761497184006</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6560052594770903</v>
+        <v>0.7392766361949914</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.596591301711376</v>
+        <v>2.463383476547257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.279475212885666</v>
+        <v>3.550049324647923</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.086614898227179</v>
+        <v>4.149354540503772</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.414565678713404</v>
+        <v>5.416106951237468</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.720209487025989</v>
+        <v>1.490800641232935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.725480230351369</v>
+        <v>1.825195001556299</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.198321731343969</v>
+        <v>2.278959426245088</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.02798014999395</v>
+        <v>3.016687398942611</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.8502807632353654</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9909331406115285</v>
+        <v>0.9909331406115279</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.0110281434441068</v>
+        <v>-0.05028068042362555</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.06589975154580148</v>
+        <v>-0.2674279366696885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.449825687733876</v>
+        <v>-0.3840367148021305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.061356590385791</v>
+        <v>0.8659947390407892</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0504635399731001</v>
+        <v>-0.1262782010994788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06209217551211444</v>
+        <v>-0.08502620741668988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.220495935657207</v>
+        <v>-0.1875262639768366</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3250232281771714</v>
+        <v>0.2390425118441507</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.006762906747775</v>
+        <v>5.014766696979081</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.109859652056011</v>
+        <v>6.04073202781917</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.022184305683007</v>
+        <v>3.824018141046374</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.860873205707169</v>
+        <v>4.070005539175695</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.029318888282274</v>
+        <v>4.297044844584</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.679718401906515</v>
+        <v>2.816547566816898</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.35766068357318</v>
+        <v>4.004042069140866</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.053910591967441</v>
+        <v>2.210148323244338</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.187139695852041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.215436411953075</v>
+        <v>4.215436411953074</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.069562486787477</v>
@@ -1049,7 +1049,7 @@
         <v>1.211869746251091</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9965823592121209</v>
+        <v>0.9965823592121206</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.824511139593139</v>
+        <v>1.762828873628688</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.531141074575621</v>
+        <v>2.634176407369568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.124830536956095</v>
+        <v>3.087643091983513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.191700622589734</v>
+        <v>3.193415892698121</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5996439839326327</v>
+        <v>0.5950648588806436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6425492156449122</v>
+        <v>0.6833836127247026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7892937697825597</v>
+        <v>0.7598376617874548</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6611362887901926</v>
+        <v>0.6671796837120088</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.719408903659321</v>
+        <v>3.688222004079306</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.828959696174351</v>
+        <v>4.786267714027864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.49391878448548</v>
+        <v>5.315917614689331</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.253455605260307</v>
+        <v>5.170402865537866</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.703679937022319</v>
+        <v>1.661405214249425</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.655695713979628</v>
+        <v>1.622173127839977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.794846426376261</v>
+        <v>1.703656749775795</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.379952883511871</v>
+        <v>1.386613799492342</v>
       </c>
     </row>
     <row r="19">
